--- a/Excel/地图表.xlsx
+++ b/Excel/地图表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -76,6 +76,45 @@
   </si>
   <si>
     <t>地图阵营</t>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.5,0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_001</t>
+  </si>
+  <si>
+    <t>Map_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,15 +439,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -431,10 +473,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +501,14 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -479,8 +530,14 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -502,10 +559,16 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -525,10 +588,16 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -547,6 +616,12 @@
       </c>
       <c r="G6">
         <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
